--- a/ML_graph_approximation/datafiles/new_data_example.xlsx
+++ b/ML_graph_approximation/datafiles/new_data_example.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leung\PycharmProjects\PYstudio\OpenGTi\Coffey_Symposium\TTCpaper\datafiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leung\Documents\GitHub\papers\ML_graph_approximation\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D872D2-D883-447C-9BB9-66EC49C72AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52640B90-BC1E-4959-A43F-6899BF637D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>L_d</t>
   </si>
@@ -52,9 +49,6 @@
   </si>
   <si>
     <t>Case10</t>
-  </si>
-  <si>
-    <t>Rb</t>
   </si>
   <si>
     <t>Case01</t>
@@ -144,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,12 +151,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,283 +166,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Case01</v>
-          </cell>
-          <cell r="B2">
-            <v>75</v>
-          </cell>
-          <cell r="C2">
-            <v>1.8750612633917001</v>
-          </cell>
-          <cell r="D2">
-            <v>2000</v>
-          </cell>
-          <cell r="E2">
-            <v>3.3010299956639808</v>
-          </cell>
-          <cell r="F2">
-            <v>100</v>
-          </cell>
-          <cell r="G2">
-            <v>2</v>
-          </cell>
-          <cell r="H2">
-            <v>0.678763747215271</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Case02</v>
-          </cell>
-          <cell r="B3">
-            <v>60</v>
-          </cell>
-          <cell r="C3">
-            <v>1.7781512503836441</v>
-          </cell>
-          <cell r="D3">
-            <v>800</v>
-          </cell>
-          <cell r="E3">
-            <v>2.9030899869919442</v>
-          </cell>
-          <cell r="F3">
-            <v>80</v>
-          </cell>
-          <cell r="G3">
-            <v>1.903089986991944</v>
-          </cell>
-          <cell r="H3">
-            <v>0.75914418697357178</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Case03</v>
-          </cell>
-          <cell r="B4">
-            <v>60</v>
-          </cell>
-          <cell r="C4">
-            <v>1.7781512503836441</v>
-          </cell>
-          <cell r="D4">
-            <v>2000</v>
-          </cell>
-          <cell r="E4">
-            <v>3.3010299956639808</v>
-          </cell>
-          <cell r="F4">
-            <v>50</v>
-          </cell>
-          <cell r="G4">
-            <v>1.698970004336019</v>
-          </cell>
-          <cell r="H4">
-            <v>0.60660207271575928</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Case04</v>
-          </cell>
-          <cell r="B5">
-            <v>50</v>
-          </cell>
-          <cell r="C5">
-            <v>1.698970004336019</v>
-          </cell>
-          <cell r="D5">
-            <v>300</v>
-          </cell>
-          <cell r="E5">
-            <v>2.477121254719663</v>
-          </cell>
-          <cell r="F5">
-            <v>500</v>
-          </cell>
-          <cell r="G5">
-            <v>2.6989700043360192</v>
-          </cell>
-          <cell r="H5">
-            <v>0.82629865407943726</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Case05</v>
-          </cell>
-          <cell r="B6">
-            <v>50</v>
-          </cell>
-          <cell r="C6">
-            <v>1.698970004336019</v>
-          </cell>
-          <cell r="D6">
-            <v>2000</v>
-          </cell>
-          <cell r="E6">
-            <v>3.3010299956639808</v>
-          </cell>
-          <cell r="F6">
-            <v>50</v>
-          </cell>
-          <cell r="G6">
-            <v>1.698970004336019</v>
-          </cell>
-          <cell r="H6">
-            <v>0.5183405876159668</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Case06</v>
-          </cell>
-          <cell r="B7">
-            <v>40</v>
-          </cell>
-          <cell r="C7">
-            <v>1.6020599913279621</v>
-          </cell>
-          <cell r="D7">
-            <v>300</v>
-          </cell>
-          <cell r="E7">
-            <v>2.477121254719663</v>
-          </cell>
-          <cell r="F7">
-            <v>10</v>
-          </cell>
-          <cell r="G7">
-            <v>1</v>
-          </cell>
-          <cell r="H7">
-            <v>0.88564580678939819</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Case07</v>
-          </cell>
-          <cell r="B8">
-            <v>25</v>
-          </cell>
-          <cell r="C8">
-            <v>1.3979400086720379</v>
-          </cell>
-          <cell r="D8">
-            <v>300</v>
-          </cell>
-          <cell r="E8">
-            <v>2.477121254719663</v>
-          </cell>
-          <cell r="F8">
-            <v>10</v>
-          </cell>
-          <cell r="G8">
-            <v>1</v>
-          </cell>
-          <cell r="H8">
-            <v>0.79509902000427246</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Case08</v>
-          </cell>
-          <cell r="B9">
-            <v>25</v>
-          </cell>
-          <cell r="C9">
-            <v>1.3979400086720379</v>
-          </cell>
-          <cell r="D9">
-            <v>800</v>
-          </cell>
-          <cell r="E9">
-            <v>2.9030899869919442</v>
-          </cell>
-          <cell r="F9">
-            <v>500</v>
-          </cell>
-          <cell r="G9">
-            <v>2.6989700043360192</v>
-          </cell>
-          <cell r="H9">
-            <v>0.37345147132873541</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Case09</v>
-          </cell>
-          <cell r="B10">
-            <v>15</v>
-          </cell>
-          <cell r="C10">
-            <v>1.1760912590556809</v>
-          </cell>
-          <cell r="D10">
-            <v>300</v>
-          </cell>
-          <cell r="E10">
-            <v>2.477121254719663</v>
-          </cell>
-          <cell r="F10">
-            <v>30</v>
-          </cell>
-          <cell r="G10">
-            <v>1.4771212547196619</v>
-          </cell>
-          <cell r="H10">
-            <v>0.47472080588340759</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Case10</v>
-          </cell>
-          <cell r="B11">
-            <v>10</v>
-          </cell>
-          <cell r="C11">
-            <v>1</v>
-          </cell>
-          <cell r="D11">
-            <v>300</v>
-          </cell>
-          <cell r="E11">
-            <v>2.477121254719663</v>
-          </cell>
-          <cell r="F11">
-            <v>30</v>
-          </cell>
-          <cell r="G11">
-            <v>1.4771212547196619</v>
-          </cell>
-          <cell r="H11">
-            <v>0.34642106294631958</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -720,20 +431,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -755,14 +465,11 @@
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="B2" s="4">
         <v>75</v>
@@ -785,15 +492,11 @@
         <f>LOG10(F2)</f>
         <v>2</v>
       </c>
-      <c r="H2" s="6">
-        <f>LOOKUP(A2,[1]Sheet1!$A$2:$H$11,[1]Sheet1!$H$2:$H$11)</f>
-        <v>0.678763747215271</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>60</v>
@@ -816,15 +519,11 @@
         <f t="shared" ref="G3:G11" si="2">LOG10(F3)</f>
         <v>1.9030899869919435</v>
       </c>
-      <c r="H3" s="6">
-        <f>LOOKUP(A3,[1]Sheet1!$A$2:$H$11,[1]Sheet1!$H$2:$H$11)</f>
-        <v>0.75914418697357178</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4">
         <v>60</v>
@@ -847,15 +546,11 @@
         <f t="shared" si="2"/>
         <v>1.6989700043360187</v>
       </c>
-      <c r="H4" s="6">
-        <f>LOOKUP(A4,[1]Sheet1!$A$2:$H$11,[1]Sheet1!$H$2:$H$11)</f>
-        <v>0.60660207271575928</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>50</v>
@@ -878,15 +573,11 @@
         <f t="shared" si="2"/>
         <v>2.6989700043360187</v>
       </c>
-      <c r="H5" s="6">
-        <f>LOOKUP(A5,[1]Sheet1!$A$2:$H$11,[1]Sheet1!$H$2:$H$11)</f>
-        <v>0.82629865407943726</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <v>50</v>
@@ -909,15 +600,11 @@
         <f t="shared" si="2"/>
         <v>1.6989700043360187</v>
       </c>
-      <c r="H6" s="6">
-        <f>LOOKUP(A6,[1]Sheet1!$A$2:$H$11,[1]Sheet1!$H$2:$H$11)</f>
-        <v>0.5183405876159668</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4">
         <v>40</v>
@@ -940,15 +627,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H7" s="6">
-        <f>LOOKUP(A7,[1]Sheet1!$A$2:$H$11,[1]Sheet1!$H$2:$H$11)</f>
-        <v>0.88564580678939819</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4">
         <v>25</v>
@@ -971,15 +654,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H8" s="6">
-        <f>LOOKUP(A8,[1]Sheet1!$A$2:$H$11,[1]Sheet1!$H$2:$H$11)</f>
-        <v>0.79509902000427246</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
         <v>25</v>
@@ -1002,15 +681,11 @@
         <f t="shared" si="2"/>
         <v>2.6989700043360187</v>
       </c>
-      <c r="H9" s="6">
-        <f>LOOKUP(A9,[1]Sheet1!$A$2:$H$11,[1]Sheet1!$H$2:$H$11)</f>
-        <v>0.37345147132873541</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4">
         <v>15</v>
@@ -1033,13 +708,9 @@
         <f t="shared" si="2"/>
         <v>1.4771212547196624</v>
       </c>
-      <c r="H10" s="6">
-        <f>LOOKUP(A10,[1]Sheet1!$A$2:$H$11,[1]Sheet1!$H$2:$H$11)</f>
-        <v>0.47472080588340759</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1064,13 +735,9 @@
         <f t="shared" si="2"/>
         <v>1.4771212547196624</v>
       </c>
-      <c r="H11" s="6">
-        <f>LOOKUP(A11,[1]Sheet1!$A$2:$H$11,[1]Sheet1!$H$2:$H$11)</f>
-        <v>0.34642106294631958</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1078,9 +745,8 @@
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1088,9 +754,8 @@
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1098,7 +763,6 @@
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
